--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W15_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W15_H50_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5537974683544303</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.5508982035928144</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9510869565217391</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.5508982035928144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7</v>
+        <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5329341317365269</v>
+        <v>0.4820359281437126</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.06606404267225448</v>
+        <v>0.06122472137041188</v>
       </c>
       <c r="J2" t="n">
-        <v>786.6074191989466</v>
+        <v>821.0364381477673</v>
       </c>
       <c r="K2" t="n">
-        <v>822070.1842159642</v>
+        <v>1006317.537188607</v>
       </c>
       <c r="L2" t="n">
-        <v>906.6808612824934</v>
+        <v>1003.153795381649</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8475576655773021</v>
+        <v>0.8133913655002105</v>
       </c>
     </row>
   </sheetData>
